--- a/data/excel_doc/wkdl_id_lims.xlsx
+++ b/data/excel_doc/wkdl_id_lims.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\Lims_Test\Lims_Test\conf\data\excel_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F4B2D-2EBA-4B45-B747-2442ECA35224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC55A8CC-76C0-4146-85EB-B016DB23DADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36165" yWindow="3555" windowWidth="22890" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文库定量明细表数据" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>富集lims号</t>
   </si>
@@ -57,6 +57,129 @@
   </si>
   <si>
     <t>GS2112280040</t>
+  </si>
+  <si>
+    <t>APPA2023082300016</t>
+  </si>
+  <si>
+    <t>华大文库定量</t>
+  </si>
+  <si>
+    <t>KA238N0007-J022-APP-A-4</t>
+  </si>
+  <si>
+    <t>AP2308230032</t>
+  </si>
+  <si>
+    <t>KA238N0007-J022-APP-A-3</t>
+  </si>
+  <si>
+    <t>AP2308230031</t>
+  </si>
+  <si>
+    <t>KA238N0007-J022-APP-A-2</t>
+  </si>
+  <si>
+    <t>AP2308230030</t>
+  </si>
+  <si>
+    <t>KA238N0007-J022-APP-A-1</t>
+  </si>
+  <si>
+    <t>AP2308230029</t>
+  </si>
+  <si>
+    <t>APPA2023082300015</t>
+  </si>
+  <si>
+    <t>KA238N0006-J022-APP-A-7</t>
+  </si>
+  <si>
+    <t>AP2308230028</t>
+  </si>
+  <si>
+    <t>KA238N0006-J022-APP-A-6</t>
+  </si>
+  <si>
+    <t>AP2308230027</t>
+  </si>
+  <si>
+    <t>KA238N0006-J022-APP-A-3</t>
+  </si>
+  <si>
+    <t>AP2308230025</t>
+  </si>
+  <si>
+    <t>KA238N0006-J022-APP-A-1</t>
+  </si>
+  <si>
+    <t>AP2308230024</t>
+  </si>
+  <si>
+    <t>KA238N0006-J022-APP-A-5</t>
+  </si>
+  <si>
+    <t>AP2308230026</t>
+  </si>
+  <si>
+    <t>APPA2023082300013</t>
+  </si>
+  <si>
+    <t>KA238N0005-J022-APP-A-4</t>
+  </si>
+  <si>
+    <t>AP2308230023</t>
+  </si>
+  <si>
+    <t>KA238N0005-J022-APP-A-3</t>
+  </si>
+  <si>
+    <t>AP2308230022</t>
+  </si>
+  <si>
+    <t>KA238N0005-J022-APP-A-2</t>
+  </si>
+  <si>
+    <t>AP2308230021</t>
+  </si>
+  <si>
+    <t>KA238N0005-J022-APP-A-1</t>
+  </si>
+  <si>
+    <t>AP2308230020</t>
+  </si>
+  <si>
+    <t>APPA2023082300011</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-3</t>
+  </si>
+  <si>
+    <t>AP2308230011</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-18</t>
+  </si>
+  <si>
+    <t>AP2308230006</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-15</t>
+  </si>
+  <si>
+    <t>AP2308230005</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-12</t>
+  </si>
+  <si>
+    <t>AP2308230004</t>
+  </si>
+  <si>
+    <t>KA238N0003-J022-APP-A-9</t>
+  </si>
+  <si>
+    <t>AP2308230015</t>
   </si>
 </sst>
 </file>
@@ -438,47 +561,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AACC32-F72F-46A0-A21B-AA1C809C7EA3}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
